--- a/va_facility_data_2025-02-20/Hattiesburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hattiesburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hattiesburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hattiesburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc63a7589e4a9499198da3f3f8a9ffeb2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R334340927ed54a38b7efab747257bb2a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R80961625efdc4dec854cea5b205bfebe"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7d5390c0b3874b2fb71f9f57bd40b9f6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf76f7b71d93422bbf9650f6ef49caf3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R990328be34a34d1dbb45406ccb08c642"/>
   </x:sheets>
 </x:workbook>
 </file>
